--- a/documenten/logboeken/Logboek Youri.xlsx
+++ b/documenten/logboeken/Logboek Youri.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D181761\Documents\GitHub\fifa\project_fifa\documenten\logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youri\Documents\Radius\Projecten\Periode 4\Git-project\project_fifa\documenten\logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Taak</t>
   </si>
@@ -33,6 +33,18 @@
   </si>
   <si>
     <t>Datum</t>
+  </si>
+  <si>
+    <t>4 uur</t>
+  </si>
+  <si>
+    <t>Contract, bereikbaarheidslijst, vragenlijst interview en plan van aanpak gemaakt</t>
+  </si>
+  <si>
+    <t>Plan van aanpak, sjabloon documentatie, vragenlijst interview en conventie rapport</t>
+  </si>
+  <si>
+    <t>4uur</t>
   </si>
 </sst>
 </file>
@@ -68,11 +80,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -373,6 +386,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
